--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722355DC-D96C-4BC3-AF2E-DBFE4C87DD7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA71B5-3E2C-4F45-816D-5EB359DD674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,18 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>SitSysAdmin13@mail.com</t>
-  </si>
-  <si>
-    <t>Password@11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Tue Nov 08 2022</t>
+  </si>
+  <si>
+    <t>checkout_month</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>Sun Jul 09 2023</t>
+  </si>
+  <si>
+    <t>EOL</t>
+  </si>
+  <si>
+    <t>November 2022</t>
+  </si>
+  <si>
+    <t>July 2023</t>
   </si>
 </sst>
 </file>
@@ -69,7 +84,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,38 +399,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDBD7D9-4CDD-499D-A68C-4B7614FF3112}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F63D2625-EB00-4EF5-A75B-2FC7AE0E1DC7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA71B5-3E2C-4F45-816D-5EB359DD674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62E194D-2D6D-4939-96BF-51E7E226EBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>month</t>
   </si>
@@ -47,16 +47,42 @@
   </si>
   <si>
     <t>July 2023</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mrchetanade@gmail.com</t>
+  </si>
+  <si>
+    <t>Chetan@123</t>
+  </si>
+  <si>
+    <t>password1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,14 +105,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDBD7D9-4CDD-499D-A68C-4B7614FF3112}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -408,7 +437,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
@@ -418,46 +447,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{F62F2952-007C-45D4-A7A9-04F83F0C7AA0}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{84357BE6-7D2D-4BC3-A107-1C7BE53800B5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62E194D-2D6D-4939-96BF-51E7E226EBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5097FD9A-C6A3-4177-B50C-3C94E23D1632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>month</t>
   </si>
@@ -37,18 +37,12 @@
     <t>dates</t>
   </si>
   <si>
-    <t>Sun Jul 09 2023</t>
-  </si>
-  <si>
     <t>EOL</t>
   </si>
   <si>
     <t>November 2022</t>
   </si>
   <si>
-    <t>July 2023</t>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
@@ -65,6 +59,9 @@
   </si>
   <si>
     <t>password1</t>
+  </si>
+  <si>
+    <t>Sun Nov 13 2022</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,26 +444,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,15 +495,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5097FD9A-C6A3-4177-B50C-3C94E23D1632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB6406-B23C-4722-B108-0FAEDBE0933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>Tue Nov 08 2022</t>
-  </si>
-  <si>
     <t>checkout_month</t>
   </si>
   <si>
@@ -61,7 +58,10 @@
     <t>password1</t>
   </si>
   <si>
-    <t>Sun Nov 13 2022</t>
+    <t>Wed Nov 09 2022</t>
+  </si>
+  <si>
+    <t>Mon Nov 14 2022</t>
   </si>
 </sst>
 </file>
@@ -444,26 +444,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,20 +479,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB6406-B23C-4722-B108-0FAEDBE0933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC2E99-4839-41CB-BC2E-8F988317C2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>Wed Nov 09 2022</t>
   </si>
   <si>
-    <t>Mon Nov 14 2022</t>
+    <t>Thu Nov 10 2022</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC2E99-4839-41CB-BC2E-8F988317C2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764E1AD-829D-462A-A48F-4E23253AD649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>month</t>
   </si>
@@ -62,6 +63,24 @@
   </si>
   <si>
     <t>Thu Nov 10 2022</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>aradhana</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>shinde@123</t>
   </si>
 </sst>
 </file>
@@ -106,10 +125,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,7 +448,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,4 +534,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68288038-93DD-4E9A-A313-66C247C6339C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{616796B0-A099-40A3-8168-48345AC20654}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764E1AD-829D-462A-A48F-4E23253AD649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54797351-65AB-4A93-805E-E767B6BF0992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,12 +59,6 @@
     <t>password1</t>
   </si>
   <si>
-    <t>Wed Nov 09 2022</t>
-  </si>
-  <si>
-    <t>Thu Nov 10 2022</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>shinde@123</t>
+  </si>
+  <si>
+    <t>Fri Nov 11 2022</t>
+  </si>
+  <si>
+    <t>Sat Nov 12 2022</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,26 +548,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54797351-65AB-4A93-805E-E767B6BF0992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA1FDD-FFF2-4CDE-A13C-FD9E51AD62BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,10 +77,10 @@
     <t>shinde@123</t>
   </si>
   <si>
-    <t>Fri Nov 11 2022</t>
-  </si>
-  <si>
     <t>Sat Nov 12 2022</t>
+  </si>
+  <si>
+    <t>Sun Nov 13 2022</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA1FDD-FFF2-4CDE-A13C-FD9E51AD62BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F6CB20-22A9-4AF9-9C71-5631996D425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,10 +77,10 @@
     <t>shinde@123</t>
   </si>
   <si>
-    <t>Sat Nov 12 2022</t>
-  </si>
-  <si>
     <t>Sun Nov 13 2022</t>
+  </si>
+  <si>
+    <t>Mon Nov 14 2022</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/testData/Data.xlsx
+++ b/src/main/java/com/testData/Data.xlsx
@@ -3,25 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F6CB20-22A9-4AF9-9C71-5631996D425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC641EA-9A00-4F42-9CDE-BB0F86064EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>month</t>
   </si>
@@ -59,28 +69,46 @@
     <t>password1</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>aradhana</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>shinde@123</t>
-  </si>
-  <si>
     <t>Sun Nov 13 2022</t>
   </si>
   <si>
     <t>Mon Nov 14 2022</t>
+  </si>
+  <si>
+    <t>mbnum</t>
+  </si>
+  <si>
+    <t>passwrd</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Maha</t>
+  </si>
+  <si>
+    <t>billunit</t>
+  </si>
+  <si>
+    <t>consumernum</t>
+  </si>
+  <si>
+    <t>170687687747</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Aradhana Shinde</t>
+  </si>
+  <si>
+    <t>4598450023058891</t>
+  </si>
+  <si>
+    <t>8485055311</t>
   </si>
 </sst>
 </file>
@@ -447,9 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDBD7D9-4CDD-499D-A68C-4B7614FF3112}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -499,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,28 +564,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68288038-93DD-4E9A-A313-66C247C6339C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
         <v>15</v>
+      </c>
+      <c r="B2">
+        <v>4321</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,11 +600,51 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{616796B0-A099-40A3-8168-48345AC20654}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>